--- a/biology/Botanique/Orchidaceae/Orchidaceae.xlsx
+++ b/biology/Botanique/Orchidaceae/Orchidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orchidées ou Orchidacées (Orchidaceae), forment une grande famille de plantes monocotylédones. C'est une des familles les plus diversifiées, comptant plus de 25 000 espèces, réparties en 850 genres.
 Ce sont des plantes herbacées, de type divers, autotrophes ou mycohétérotrophes, à feuilles réduites, à écailles, ou développées, terrestres ou épiphytes, pérennes, rhizomateuses ou tubéreuses, des régions tempérées à tropicales. La symbiose, qu'elle soit de type autotrophique, saprophytique, voire parasitique, se fait avec un champignon microscopique qui permet à la plante de pallier l'absence de toute réserve dans ses graines ainsi que l'absence de radicelles au niveau de ses racines.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Orchis, mot latin dérivé du grec ancien ὄρχις / órkhis, « testicule », en référence à la forme des tubercules souterrains de certaines orchidées terrestres des régions tempérées, lorsque ces tubercules sont jumelés. C'est à Théophraste que l'on attribue cette dénomination.
 Le nom français « orchidée » peut être pris au sens large ou au sens restreint, désignant soit la famille en intégralité, soit les membres de la tribu des Orchideae comptant de nombreuses orchidées terrestres européennes.
@@ -546,10 +560,12 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les données scientifiques obtenues grâce au pollen d'une orchidée éteinte retrouvé dans de l'ambre nous indiquent que cette famille serait âgée de 75 à 86 millions d'années. Les orchidées font partie des monocotylédones et la famille y étant la plus apparentée est celle des liliacées. Les orchidées ont notamment développé des caractéristiques rendant cette famille de plantes très économe en ressources : réduction du nombre d'étamines, symbiose avec un champignon, métabolisme de type CAM, etc. Leurs graines sont souvent minuscules. Leur taille et poids varie beaucoup selon l'espèce, les plus petites ne mesurant que de 1 à 5 millimètres (Bulbophyllum minutissimum en Australie, qui ne pèse probablement pas plus d'un gramme ou deux) alors que la plus grosse orchidée connue (Grammatophyllum speciosum) est une épiphyte qui peut peser plus d'une tonne et développer des tiges d'environ 3 mètres de long[1]. Selon les auteurs, le nombre d'espèces botaniques dans cette famille varie de 25 000 à 30 000. Ces chiffres en font l'une des plus importantes familles de plantes à fleurs, qui a pratiquement colonisé tous les milieux, à l'exception des déserts et des cours d'eau.
-De nombreuses orchidées (dont 21 espèces dans le genre Ophrys)[2] attirent chacune un insecte spécifique (généralement des abeilles, des guêpes ou des mouches) par l'odeur ou par leur labelle mimant la morphologie du pollinisateur. Les mâles, lors de la visite des fleurs, adoptent face à ce leurre sexuel (leurre visuel et olfactif) un comportement d’accouplement, la pseudocopulation qui conduit à un dépôt de pollen sur leur corps.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données scientifiques obtenues grâce au pollen d'une orchidée éteinte retrouvé dans de l'ambre nous indiquent que cette famille serait âgée de 75 à 86 millions d'années. Les orchidées font partie des monocotylédones et la famille y étant la plus apparentée est celle des liliacées. Les orchidées ont notamment développé des caractéristiques rendant cette famille de plantes très économe en ressources : réduction du nombre d'étamines, symbiose avec un champignon, métabolisme de type CAM, etc. Leurs graines sont souvent minuscules. Leur taille et poids varie beaucoup selon l'espèce, les plus petites ne mesurant que de 1 à 5 millimètres (Bulbophyllum minutissimum en Australie, qui ne pèse probablement pas plus d'un gramme ou deux) alors que la plus grosse orchidée connue (Grammatophyllum speciosum) est une épiphyte qui peut peser plus d'une tonne et développer des tiges d'environ 3 mètres de long. Selon les auteurs, le nombre d'espèces botaniques dans cette famille varie de 25 000 à 30 000. Ces chiffres en font l'une des plus importantes familles de plantes à fleurs, qui a pratiquement colonisé tous les milieux, à l'exception des déserts et des cours d'eau.
+De nombreuses orchidées (dont 21 espèces dans le genre Ophrys) attirent chacune un insecte spécifique (généralement des abeilles, des guêpes ou des mouches) par l'odeur ou par leur labelle mimant la morphologie du pollinisateur. Les mâles, lors de la visite des fleurs, adoptent face à ce leurre sexuel (leurre visuel et olfactif) un comportement d’accouplement, la pseudocopulation qui conduit à un dépôt de pollen sur leur corps.
 Beaucoup de fleurs qui présentent une symétrie par rapport à un plan sont dites irrégulières ou zygomorphes. Chez les fleurs irrégulières, d'autre pièces florales peuvent également perdre leur forme régulière, mais ce sont les pétales qui montrent les plus grandes modifications par rapport à la symétrie radiale. Des exemples de fleurs zygomorphes peuvent être trouvés parmi les orchidées.
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La croissance des orchidées est sympodiale, le rhizome émettant des pousses dans plusieurs directions, ou monopodiale, avec une seule pousse.
 Beaucoup d'orchidées tropicales sont épiphytes, et adaptées à l'ombre régnant dans la forêt tropicale. Elles présentent des tiges épaissies à leur base en pseudobulbes, avec des racines souvent pourvues d'un velamen, voile de radicelles devant capter l'humidité atmosphérique.
@@ -614,16 +632,18 @@
           <t>État des populations, pressions, menaces, et actions de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses espèces d'orchidées, majoritairement situées en zone tropicale ont disparu ou sont menacées. Ceci est principalement causé en premier lieu par la destruction de leur habitat: (déforestation, artificialisation des lisières forestières, fragmentation des forêts, drainage des zones humides pour la culture ou l'assainissement, etc.), de même que par la demande de certains collectionneurs (pression qui semble moins importante de nos jours alors que les techniques de reproductions des orchidées se spécialisent). La chasse aux orchidées s'est développée à la fin du XVIIIe siècle et a atteint son apogée au XIXe siècle, lorsque des botanistes étaient envoyés au bout du monde pour rapporter des espèces rares à des collectionneurs fortunés. L'engouement pour ces fleurs prit une telle ampleur qu'elles se vendaient à prix d'or, en particulier à l'époque victorienne., mais leur succès a été à l'origine d'un pillage et d'un saccage des milieux[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces d'orchidées, majoritairement situées en zone tropicale ont disparu ou sont menacées. Ceci est principalement causé en premier lieu par la destruction de leur habitat: (déforestation, artificialisation des lisières forestières, fragmentation des forêts, drainage des zones humides pour la culture ou l'assainissement, etc.), de même que par la demande de certains collectionneurs (pression qui semble moins importante de nos jours alors que les techniques de reproductions des orchidées se spécialisent). La chasse aux orchidées s'est développée à la fin du XVIIIe siècle et a atteint son apogée au XIXe siècle, lorsque des botanistes étaient envoyés au bout du monde pour rapporter des espèces rares à des collectionneurs fortunés. L'engouement pour ces fleurs prit une telle ampleur qu'elles se vendaient à prix d'or, en particulier à l'époque victorienne., mais leur succès a été à l'origine d'un pillage et d'un saccage des milieux.
 La régression et la disparition de pollinisateur (insecte, oiseau, chauve-souris) dont l'orchidée est souvent dépendante peut également être un facteur amenant une espèce sur la voie de la disparition.
-À titre d'exemple, 226 espèces d'orchidées indigènes ont été découvertes et décrites à Singapour depuis trois siècles. Aujourd'hui, 178 de ces espèces sont considérées comme éteintes dans le pays, et seulement cinq sont encore communes[4].
+À titre d'exemple, 226 espèces d'orchidées indigènes ont été découvertes et décrites à Singapour depuis trois siècles. Aujourd'hui, 178 de ces espèces sont considérées comme éteintes dans le pays, et seulement cinq sont encore communes.
 Des programmes de conservation et plans de restauration des orchidées se mettent en place, ainsi que des programmes de monitoring visant à surveiller et évaluer l'état de conservation d'espèces existantes, leur diversité génétique. On cherche à augmenter leur nombre dans la nature ou en milieux semi-naturels, et urbains parfois par la culture des semis ex-situ à fin de leur réintroduction dans des habitats appropriés, y compris pour les épiphytes dans des arbres de bord de route, de parcs ou d'espaces naturels.
 Le caractère symbiotique de certaines orchidées, la régression de leurs pollinisateurs rend leur réintroduction parfois difficile.
-À Singapour par exemple, cinq espèces d'orchidées indigènes (Grammatophyllum speciosum , la plus grande orchidée du monde, Bulbophyllum vaginatum, Bulbophyllum membranaceum, Cymbidium finlaysonianum et Cymbidium finlaysonianum bicolor) ont fait l'objet de mise en culture et expérimentation de réintroduction[4]. Le pourcentage de survie 8 ans après réintroduction varie de 10 % à 95 % pour G.speciosum, l'espèce-cible des premières expériences de réintroduction. La taille des plants réintroduits, le choix des arbres-hôtes, et la qualité du contexte thermo-hygrométrique semble jouer un rôle important dans le succès ou non des réintroductions[4].
+À Singapour par exemple, cinq espèces d'orchidées indigènes (Grammatophyllum speciosum , la plus grande orchidée du monde, Bulbophyllum vaginatum, Bulbophyllum membranaceum, Cymbidium finlaysonianum et Cymbidium finlaysonianum bicolor) ont fait l'objet de mise en culture et expérimentation de réintroduction. Le pourcentage de survie 8 ans après réintroduction varie de 10 % à 95 % pour G.speciosum, l'espèce-cible des premières expériences de réintroduction. La taille des plants réintroduits, le choix des arbres-hôtes, et la qualité du contexte thermo-hygrométrique semble jouer un rôle important dans le succès ou non des réintroductions.
 La fièvre orchidophile est telle que des chasseurs d'orchidées n'hésitent pas à prélever illégalement des orchidées de leur site, telle Phragmipedium kovachii en 2002.
-Toutes les espèces d'orchidées sont inscrites aux annexes de la CITES : celles qui sont inscrites à l'annexe II peuvent être commercialisées, qu'elles soient d'origine sauvage ou artificielle, après l'obtention d'un permis ; d'autres sont protégées par la CITES comme les Paphiopedilum et leur commerce est interdit[5] comme le montre par exemple l'arrestation puis la condamnation à quatre mois de prison pour trafic de plantes du docteur Sian Lim en 2006[6].
+Toutes les espèces d'orchidées sont inscrites aux annexes de la CITES : celles qui sont inscrites à l'annexe II peuvent être commercialisées, qu'elles soient d'origine sauvage ou artificielle, après l'obtention d'un permis ; d'autres sont protégées par la CITES comme les Paphiopedilum et leur commerce est interdit comme le montre par exemple l'arrestation puis la condamnation à quatre mois de prison pour trafic de plantes du docteur Sian Lim en 2006.
 </t>
         </is>
       </c>
@@ -652,10 +672,12 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude de la morphologie particulière des fleurs d'orchidées, des relations que ces plantes entretiennent avec les insectes, a d'ailleurs nourri au XIXe siècle les réflexions de Charles Darwin et lui a, en partie, permis d'établir son modèle théorique de l'évolution.
-Majoritairement d'origine tropicale, ces plantes ont fait l'objet, de la part de riches amateurs, à l'époque de l'expansion des empires coloniaux européens, d'un engouement particulier[7].
+Majoritairement d'origine tropicale, ces plantes ont fait l'objet, de la part de riches amateurs, à l'époque de l'expansion des empires coloniaux européens, d'un engouement particulier.
 Depuis, une meilleure connaissance de leur écologie, de la symbiose qui les unit à certains champignons spécifiques (du genre Rhizoctonia notamment) au cours du développement des embryons, la mise au point de milieux de cultures adaptés, stériles, ainsi que la création d'hybrides horticoles moins fragiles, ont démocratisé leur culture.
 La très grande variabilité génétique des orchidées, source de la richesse naturelle en espèces de ce taxon, la prête d'ailleurs à une hybridation artificielle: plus de cent mille hybrides horticoles ont été créés depuis la mise au point des méthodes de culture.
 Les phalaenopsis comptent parmi les orchidées les plus cultivées du monde et certainement les plus communes en Europe comme plantes d'appartement.
@@ -688,7 +710,9 @@
           <t>Collections d'orchidées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amateurs d'orchidées, appelés orchidophiles, peuvent vouloir détenir une collection pour assouvir leur passion.
 </t>
@@ -719,7 +743,9 @@
           <t>Alimentation humaine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu d'orchidées sont utilisées dans l'alimentation. On relève toutefois le genre Vanilla, dont la gousse est la vanille. La vanille est cultivée dans les régions tropicales, et son besoin en ombre rend possible son exploitation en agroforesterie.
 Le Faham (Jumellea fragrans) entre dans la confection du rhum arrangé, lui procurant son goût caramélisé. La cueillette se déroule dans la nature, sur les sites de production, et engendre une raréfaction progressive de la plante.
@@ -752,32 +778,28 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'un point de vue systématique, les auteurs ont considéré que les Orchidacées comportaient plusieurs lignées évolutives nettement différenciées, actuellement, au nombre de six. Celles-ci ont parfois été désignées comme cinq familles différentes. Certains auteurs ne les reconnaissaient pas toutes.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'un point de vue systématique, les auteurs ont considéré que les Orchidacées comportaient plusieurs lignées évolutives nettement différenciées, actuellement, au nombre de six. Celles-ci ont parfois été désignées comme cinq familles différentes. Certains auteurs ne les reconnaissaient pas toutes.
 Les données actuelles montrent que la famille des Orchidaceae est monophylétique, avec cinq sous-familles :
 les Apostasioideae (2 genres / 17 espèces), les plus « primitives », avec des fleurs à 6 tépales (3 externes et 3 internes) et 3 étamines), sans gynostème,
 les Vanilloideae (15 g / 248 e),
 les Cypripedioideae (5 g / 158 e),
 les Orchidoideae (211 g / 4914 e)
 et enfin les plus récentes Epidendroideae (578 g / 21268 e)
-En 2015, une étude phylogénétique[8] a montré un fort soutien statistique pour la topologie suivante des orchidées, en utilisant 9 kb d'ADN plastidial et nucléaire de 7 gènes, une topologie qui a été confirmée par une étude phylogénomique la même année[9].
-La classification phylogénétique APG III (2009)[10], le standard actuel, reconnaît une seule famille, celle des Orchideaceae, et considère les six lignées comme six sous-familles :
+En 2015, une étude phylogénétique a montré un fort soutien statistique pour la topologie suivante des orchidées, en utilisant 9 kb d'ADN plastidial et nucléaire de 7 gènes, une topologie qui a été confirmée par une étude phylogénomique la même année.
+La classification phylogénétique APG III (2009), le standard actuel, reconnaît une seule famille, celle des Orchideaceae, et considère les six lignées comme six sous-familles :
 les Apostasioideae représentant une vingtaine d'espèces, de deux genres, originaires d'Asie du Sud-Est ou d'Australie, qui présentent, au niveau des fleurs, des caractéristiques primitives: similarité des sépales et des pétales, absence de labelle différencié, présence de trois étamines fertiles, et un pollen pulvérulent, qui révèlent leur parenté avec la fleur des Liliaceae, comme les amaryllis et les narcisses, desquelles toutes les orchidées seraient les descendantes ;
-les Codonorchidoideae, qui étaient considérés comme une tribu selon la classification phylogénétique APG II (2003)[11], regroupant actuellement un seul genre, les Codonorchis ; désormais regroupées avec les Orchidoideae
+les Codonorchidoideae, qui étaient considérés comme une tribu selon la classification phylogénétique APG II (2003), regroupant actuellement un seul genre, les Codonorchis ; désormais regroupées avec les Orchidoideae
 les Cypripedioideae représentant une centaine d'espèces de quatre genres, dont les fleurs présentent un labelle en forme de sabot, comme le sabot de Vénus, le seul genre européen de cette famille est Cypripedium, deux étamines latérales fertiles, et un pollen granuleux ;
 les Epidendroideae ;
 les Orchidoideae avec plusieurs dizaines de milliers d'espèces dont les fleurs présentent :
 un labelle différencié: le pétale supérieur, qui a subi une différenciation morphologique ;
 les parties sexuées soudées en une colonne appelée gynostème comprenant une seule étamine fertile avec les grains de pollen réunis en pollinies séparées des deux stigmates fertiles par le rostellum ;
 un ovaire infère ayant, la plupart du temps, subi une torsion à 180 degrés (résupination), mettant le labelle en position inférieure.
-les Vanilloideae, comprenant notamment les espèces de vanilles.
-Liste complète des genres
-Voir la liste des genres d'Orchidaceae
-Hybrides horticoles
-Outre les espèces botaniques et les hybrides naturels, le monde des orchidées comporte aussi d'innombrables variétés commerciales, le plus souvent hybrides. Beaucoup sont nommées d'après les définitions de la taxonomie (cymbidium, phalaenopsis, etc.), et il existe aussi des dénominations propres aux horticulteurs pour désigner les hybrides intergénériques (croisement entre deux genres proches afin d'obtenir un genre artificiel). Par exemple : Brassidium, Cambria, Laeliocattleya, etc.
-Les orchidées ont une facilité, unique dans le monde végétal, à produire facilement des hybrides entre espèces de genres différents. De plus, ces hybrides sont souvent fertiles.
-</t>
+les Vanilloideae, comprenant notamment les espèces de vanilles.</t>
         </is>
       </c>
     </row>
@@ -802,12 +824,93 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste complète des genres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir la liste des genres d'Orchidaceae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hybrides horticoles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les espèces botaniques et les hybrides naturels, le monde des orchidées comporte aussi d'innombrables variétés commerciales, le plus souvent hybrides. Beaucoup sont nommées d'après les définitions de la taxonomie (cymbidium, phalaenopsis, etc.), et il existe aussi des dénominations propres aux horticulteurs pour désigner les hybrides intergénériques (croisement entre deux genres proches afin d'obtenir un genre artificiel). Par exemple : Brassidium, Cambria, Laeliocattleya, etc.
+Les orchidées ont une facilité, unique dans le monde végétal, à produire facilement des hybrides entre espèces de genres différents. De plus, ces hybrides sont souvent fertiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Espèces significatives</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Espèces rencontrées en France métropolitaine
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en France métropolitaine</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anacamptis
 Anacamptis champagneuxii
 Anacamptis collina, Orchis des collines.
@@ -1013,16 +1116,89 @@
 Traunsteinera globosa (L.) Reichenb. Orchis globuleux
 biotopes
 De nombreuses orchidées présentes en France, ont des tubercules et sont des géophytes. Certaines espèces, comme l'Orchis pourpre (Orchis purpurea), l'Ophrys bourdon (Ophrys fuciflora) ou l'Épipactis à petites feuilles (Epipactis microphylla), sont calcicoles. De nombreuses réserves naturelles sont centrées sur leurs pelouses à orchidées, ayant ces caractéristique de sols calcaires. On peut citer, par exemple, la pelouse calcaire du plateau de Beauregard, qui se trouve sur la commune de Maxey-sur-Meuse, dans le département des Vosges en région Grand Est.
-Espèces rencontrées dans les départements, territoires et pays d'outre-mer
-Aeranthes strangulata, sur l'île de La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces significatives</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées dans les départements, territoires et pays d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aeranthes strangulata, sur l'île de La Réunion.
 Epidendrum ciliare, sur l'île Saint-Martin
 Epidendrum rubrum, sur l'île Saint-Martin
 Tolumnia urophylla, sur l'île Saint-Martin
 Brassavola cucullata, sur l'île Saint-Martin
 Polystachya concreta, sur l'île Saint-Martin
-Eriaxis rigida, endémique de la Nouvelle-Calédonie
-Orchidées de Guyane 
-Catasetum macrocarpum, endémique
+Eriaxis rigida, endémique de la Nouvelle-Calédonie</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces significatives</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées dans les départements, territoires et pays d'outre-mer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orchidées de Guyane </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Catasetum macrocarpum, endémique
 Epidendrum katarun-yariku
 Galeandra baueri
 Galeandra dives
@@ -1033,9 +1209,43 @@
 Paphinia cristata f. modiglianiana
 Psychopsis papilio
 Trichocentrum lanceanum
-Vanilla pompona
-Espèces rencontrées au Cameroun
-Ancistrorhynchus crystalensis P.J.Cribb &amp; Laan
+Vanilla pompona</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces significatives</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées au Cameroun</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ancistrorhynchus crystalensis P.J.Cribb &amp; Laan
 Ancistrorhynchus obovata Stévart inedit.
 Cyrtorchis ringens  (Rchb.f.) Summerh
 Cyrtorchis submontana Stévart inedit.
@@ -1047,46 +1257,190 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Orchidaceae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Symbolique
-Les noces d'orchidée symbolisent les 55 ans de mariage[réf. nécessaire].
-Langage des fleurs
-Dans le langage des fleurs, l'orchidée symbolise la ferveur[12].
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noces d'orchidée symbolisent les 55 ans de mariage[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'orchidée symbolise la ferveur.
 Lors de sa tournée Olympia 1971, la chanteuse Dalida fut surnommée « l'orchidée blanche », entrant en scène vêtue d'une longue robe blanche signée Balmain.
-Philatélie
-L'espèce Dactylorhiza insularis, l'Orchis de Corse, est représentée sur des timbres préoblitérés de France émis en 2002, 2004 et 2007 sous le nom de Orchis insularis.
-Filmographie
-Une rencontre au sommet. L'homme et l'orchidée. de la série télévisée L'aventure des plantes (1982) Lien web vers l'épisode 13 [1] 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dactylorhiza insularis, l'Orchis de Corse, est représentée sur des timbres préoblitérés de France émis en 2002, 2004 et 2007 sous le nom de Orchis insularis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Une rencontre au sommet. L'homme et l'orchidée. de la série télévisée L'aventure des plantes (1982) Lien web vers l'épisode 13  
 La fièvre de l'orchidée, film documentaire de Martin Blanchard, France, 2010, 60 min, diffusé sur France 5 le 23 janvier 2011.
 Colombiana, film de Luc Besson, 2011, où la "Cataleya" (orchidée) est le nom et la marque des assassinats du personnage principal.
-Adaptation, film de fiction de Spike Jonze, États-Unis, 2003, avec Nicolas Cage, Meryl Streep, Chris Cooper, d'après le livre de Susan Orlean, Le voleur d'orchidées, histoire vraie de John Laroche, trafiquant d'orchidées dans les Everglades[13].
-Personnalités liées aux orchidées
-Peter Lawson (né en 1951), compositeur britannique et botaniste amateur ayant entrepris de décrire musicalement depuis 1981 les quarante-huit espèces d'orchidées sauvages recensées en Grande-Bretagne et en Irlande ;
+Adaptation, film de fiction de Spike Jonze, États-Unis, 2003, avec Nicolas Cage, Meryl Streep, Chris Cooper, d'après le livre de Susan Orlean, Le voleur d'orchidées, histoire vraie de John Laroche, trafiquant d'orchidées dans les Everglades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Orchidaceae</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchidaceae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Personnalités liées aux orchidées</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Peter Lawson (né en 1951), compositeur britannique et botaniste amateur ayant entrepris de décrire musicalement depuis 1981 les quarante-huit espèces d'orchidées sauvages recensées en Grande-Bretagne et en Irlande ;
 Benedikt Roezl, célèbre collecteur d'orchidées ;</t>
         </is>
       </c>
